--- a/data/pca/factorExposure/factorExposure_2012-07-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-07-13.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01825285633414014</v>
+        <v>-0.02314558363011954</v>
       </c>
       <c r="C2">
-        <v>0.0280595085126195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02453721991141416</v>
+      </c>
+      <c r="D2">
+        <v>-0.005165477594450931</v>
+      </c>
+      <c r="E2">
+        <v>-0.01688458235586627</v>
+      </c>
+      <c r="F2">
+        <v>-0.005138365759205591</v>
+      </c>
+      <c r="G2">
+        <v>0.014039977327105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06915317013875683</v>
+        <v>-0.07533883426326575</v>
       </c>
       <c r="C4">
-        <v>0.05831507904239734</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.03917747805020463</v>
+      </c>
+      <c r="D4">
+        <v>-0.07092686280902331</v>
+      </c>
+      <c r="E4">
+        <v>0.003812935985725783</v>
+      </c>
+      <c r="F4">
+        <v>-0.0183003105286534</v>
+      </c>
+      <c r="G4">
+        <v>-0.0266541048069839</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.09667533937384466</v>
+        <v>-0.1122101257589592</v>
       </c>
       <c r="C6">
-        <v>0.06539919284669773</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.04484285273914373</v>
+      </c>
+      <c r="D6">
+        <v>-0.01476590456590665</v>
+      </c>
+      <c r="E6">
+        <v>0.006471391814108846</v>
+      </c>
+      <c r="F6">
+        <v>-0.04401768591232573</v>
+      </c>
+      <c r="G6">
+        <v>0.01179990685129689</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.04497923043450661</v>
+        <v>-0.05387384969693632</v>
       </c>
       <c r="C7">
-        <v>0.03442867788582286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.02572938975136191</v>
+      </c>
+      <c r="D7">
+        <v>-0.03406801802671645</v>
+      </c>
+      <c r="E7">
+        <v>-0.02272695452477004</v>
+      </c>
+      <c r="F7">
+        <v>-0.0265734755598029</v>
+      </c>
+      <c r="G7">
+        <v>-0.03744314882271808</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.03281122356029648</v>
+        <v>-0.03342348542261959</v>
       </c>
       <c r="C8">
-        <v>0.02652623170302928</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01705994670838175</v>
+      </c>
+      <c r="D8">
+        <v>-0.03935902883132219</v>
+      </c>
+      <c r="E8">
+        <v>-0.008780384561046663</v>
+      </c>
+      <c r="F8">
+        <v>-0.05007813319702287</v>
+      </c>
+      <c r="G8">
+        <v>0.0214984798189813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.06197862506986783</v>
+        <v>-0.06926456086093288</v>
       </c>
       <c r="C9">
-        <v>0.04500204261598179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02865314391786971</v>
+      </c>
+      <c r="D9">
+        <v>-0.07190533268427092</v>
+      </c>
+      <c r="E9">
+        <v>-0.01646160265994593</v>
+      </c>
+      <c r="F9">
+        <v>-0.03262427824420097</v>
+      </c>
+      <c r="G9">
+        <v>-0.01014688080292307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02997596799195968</v>
+        <v>-0.04064342498127738</v>
       </c>
       <c r="C10">
-        <v>0.0373057055452904</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.03819341840277926</v>
+      </c>
+      <c r="D10">
+        <v>0.1840747670390174</v>
+      </c>
+      <c r="E10">
+        <v>-0.04683204340321101</v>
+      </c>
+      <c r="F10">
+        <v>-0.03075458242208924</v>
+      </c>
+      <c r="G10">
+        <v>-0.02321073651601243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.06999131778412318</v>
+        <v>-0.07586968330896461</v>
       </c>
       <c r="C11">
-        <v>0.05257601194460286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.0312363817293174</v>
+      </c>
+      <c r="D11">
+        <v>-0.06754396626114552</v>
+      </c>
+      <c r="E11">
+        <v>0.006855445171668605</v>
+      </c>
+      <c r="F11">
+        <v>-0.03596317117083062</v>
+      </c>
+      <c r="G11">
+        <v>-0.03912489144080497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.05290045001837811</v>
+        <v>-0.06044889892755288</v>
       </c>
       <c r="C12">
-        <v>0.05108566430105502</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03525925919708494</v>
+      </c>
+      <c r="D12">
+        <v>-0.05015168906635213</v>
+      </c>
+      <c r="E12">
+        <v>-0.009820087212176027</v>
+      </c>
+      <c r="F12">
+        <v>-0.02663839204304953</v>
+      </c>
+      <c r="G12">
+        <v>-0.03323855014198479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.05967980576466306</v>
+        <v>-0.06442882758901583</v>
       </c>
       <c r="C13">
-        <v>0.05151941298548365</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.0305380159753096</v>
+      </c>
+      <c r="D13">
+        <v>-0.05614075409598915</v>
+      </c>
+      <c r="E13">
+        <v>-0.004359518018431732</v>
+      </c>
+      <c r="F13">
+        <v>-0.01290587283484703</v>
+      </c>
+      <c r="G13">
+        <v>-0.01611905634270038</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.03387557880051523</v>
+        <v>-0.03878034060530861</v>
       </c>
       <c r="C14">
-        <v>0.0293314944886135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02255685859775905</v>
+      </c>
+      <c r="D14">
+        <v>-0.01147978589762586</v>
+      </c>
+      <c r="E14">
+        <v>-0.01871106458609108</v>
+      </c>
+      <c r="F14">
+        <v>-0.017916147397793</v>
+      </c>
+      <c r="G14">
+        <v>0.008174041022189276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>-0.04010710684504996</v>
+        <v>-0.04035300187928319</v>
       </c>
       <c r="C15">
-        <v>0.01403220146306305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.004857533256401947</v>
+      </c>
+      <c r="D15">
+        <v>-0.0195324059153945</v>
+      </c>
+      <c r="E15">
+        <v>-0.04246054564022048</v>
+      </c>
+      <c r="F15">
+        <v>0.003282284934137905</v>
+      </c>
+      <c r="G15">
+        <v>0.02048488167716034</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.05802267226391547</v>
+        <v>-0.06146374874450879</v>
       </c>
       <c r="C16">
-        <v>0.04347261839758125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02707959999414053</v>
+      </c>
+      <c r="D16">
+        <v>-0.05888946700823054</v>
+      </c>
+      <c r="E16">
+        <v>-0.001142137376036071</v>
+      </c>
+      <c r="F16">
+        <v>-0.02916767986100112</v>
+      </c>
+      <c r="G16">
+        <v>-0.02203873749830781</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.06250989216957589</v>
+        <v>-0.0615885025957287</v>
       </c>
       <c r="C20">
-        <v>0.03671026392644965</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01815892221625419</v>
+      </c>
+      <c r="D20">
+        <v>-0.04923063471664113</v>
+      </c>
+      <c r="E20">
+        <v>-0.01912013199874261</v>
+      </c>
+      <c r="F20">
+        <v>-0.02374632892648284</v>
+      </c>
+      <c r="G20">
+        <v>-0.02647636762782432</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.02696838539487721</v>
+        <v>-0.02314235143847639</v>
       </c>
       <c r="C21">
-        <v>2.309108792004237e-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.01077880065318682</v>
+      </c>
+      <c r="D21">
+        <v>-0.03770233975420382</v>
+      </c>
+      <c r="E21">
+        <v>-0.09177713878365315</v>
+      </c>
+      <c r="F21">
+        <v>0.01047077387174244</v>
+      </c>
+      <c r="G21">
+        <v>0.0163716672705662</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.07083015931781828</v>
+        <v>-0.07015704715744907</v>
       </c>
       <c r="C22">
-        <v>0.07721992639252147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.0487328380545402</v>
+      </c>
+      <c r="D22">
+        <v>-0.1093971839939199</v>
+      </c>
+      <c r="E22">
+        <v>-0.6030776832410689</v>
+      </c>
+      <c r="F22">
+        <v>0.1594127412569215</v>
+      </c>
+      <c r="G22">
+        <v>0.04709173532694554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.07157556684977245</v>
+        <v>-0.07086311939061744</v>
       </c>
       <c r="C23">
-        <v>0.07673818519838115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.04817040339160387</v>
+      </c>
+      <c r="D23">
+        <v>-0.1105337802242761</v>
+      </c>
+      <c r="E23">
+        <v>-0.6022484649755985</v>
+      </c>
+      <c r="F23">
+        <v>0.1590922871473786</v>
+      </c>
+      <c r="G23">
+        <v>0.04866720555945975</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.06450908326900441</v>
+        <v>-0.07240795574932762</v>
       </c>
       <c r="C24">
-        <v>0.0509493338871508</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03235775906767903</v>
+      </c>
+      <c r="D24">
+        <v>-0.06629280951154162</v>
+      </c>
+      <c r="E24">
+        <v>-0.007517367345062744</v>
+      </c>
+      <c r="F24">
+        <v>-0.04284368193743367</v>
+      </c>
+      <c r="G24">
+        <v>-0.01806934294046503</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.06544916331877179</v>
+        <v>-0.07110738080772089</v>
       </c>
       <c r="C25">
-        <v>0.05729127169728135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03813009077769183</v>
+      </c>
+      <c r="D25">
+        <v>-0.06404811820099295</v>
+      </c>
+      <c r="E25">
+        <v>-0.008377601327841237</v>
+      </c>
+      <c r="F25">
+        <v>-0.039714264710936</v>
+      </c>
+      <c r="G25">
+        <v>-0.01502934444366353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.03926844707355526</v>
+        <v>-0.04001361444235976</v>
       </c>
       <c r="C26">
-        <v>0.01330170083190043</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.005096790072294951</v>
+      </c>
+      <c r="D26">
+        <v>-0.01969095924945794</v>
+      </c>
+      <c r="E26">
+        <v>-0.03773903848544269</v>
+      </c>
+      <c r="F26">
+        <v>-0.01494585448856861</v>
+      </c>
+      <c r="G26">
+        <v>-0.01655255329494784</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.05688440445164846</v>
+        <v>-0.07654492390633813</v>
       </c>
       <c r="C28">
-        <v>0.07671781986919257</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.07652062690921434</v>
+      </c>
+      <c r="D28">
+        <v>0.3236269898890159</v>
+      </c>
+      <c r="E28">
+        <v>-0.04928475666957909</v>
+      </c>
+      <c r="F28">
+        <v>-0.05353853049153361</v>
+      </c>
+      <c r="G28">
+        <v>0.02656670315119765</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.03672457521310167</v>
+        <v>-0.04223819666790896</v>
       </c>
       <c r="C29">
-        <v>0.03264372995886606</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02550605874451247</v>
+      </c>
+      <c r="D29">
+        <v>-0.009627807947105589</v>
+      </c>
+      <c r="E29">
+        <v>-0.04408372367961277</v>
+      </c>
+      <c r="F29">
+        <v>-0.009503260928060852</v>
+      </c>
+      <c r="G29">
+        <v>-0.00393661518352331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.1150791558610541</v>
+        <v>-0.1277323182871679</v>
       </c>
       <c r="C30">
-        <v>0.09802263537160365</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06630738807032925</v>
+      </c>
+      <c r="D30">
+        <v>-0.1056890903429605</v>
+      </c>
+      <c r="E30">
+        <v>-0.03736939241221637</v>
+      </c>
+      <c r="F30">
+        <v>-0.007097594872215462</v>
+      </c>
+      <c r="G30">
+        <v>-0.003631969385545028</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.03777635067897789</v>
+        <v>-0.04265961880202242</v>
       </c>
       <c r="C31">
-        <v>0.02433551713393299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01544827955269355</v>
+      </c>
+      <c r="D31">
+        <v>-0.02960047357286365</v>
+      </c>
+      <c r="E31">
+        <v>-0.02069719789206886</v>
+      </c>
+      <c r="F31">
+        <v>-0.01465919106439147</v>
+      </c>
+      <c r="G31">
+        <v>-0.01846683080311216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.0321671865249545</v>
+        <v>-0.03333029865570621</v>
       </c>
       <c r="C32">
-        <v>0.02868137157781648</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.0181399884494608</v>
+      </c>
+      <c r="D32">
+        <v>-0.01453839922233749</v>
+      </c>
+      <c r="E32">
+        <v>-0.06076433910709548</v>
+      </c>
+      <c r="F32">
+        <v>0.01331148317796489</v>
+      </c>
+      <c r="G32">
+        <v>0.01035410554511188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.07623424031590022</v>
+        <v>-0.08723022001763728</v>
       </c>
       <c r="C33">
-        <v>0.05022725540687586</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.032558784122548</v>
+      </c>
+      <c r="D33">
+        <v>-0.06301124859424689</v>
+      </c>
+      <c r="E33">
+        <v>-0.01368276432882538</v>
+      </c>
+      <c r="F33">
+        <v>-0.001787943351334759</v>
+      </c>
+      <c r="G33">
+        <v>-0.02897665673306754</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05169930896412193</v>
+        <v>-0.056556110107823</v>
       </c>
       <c r="C34">
-        <v>0.03246112241818179</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01860266099653631</v>
+      </c>
+      <c r="D34">
+        <v>-0.05732381198204138</v>
+      </c>
+      <c r="E34">
+        <v>-0.004465813007339775</v>
+      </c>
+      <c r="F34">
+        <v>-0.02816135282040936</v>
+      </c>
+      <c r="G34">
+        <v>-0.01598352557615535</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>-0.03768076376803621</v>
+        <v>-0.03978763354143759</v>
       </c>
       <c r="C35">
-        <v>0.01357507629920784</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.005989396819624944</v>
+      </c>
+      <c r="D35">
+        <v>-0.01058106522113771</v>
+      </c>
+      <c r="E35">
+        <v>-0.03187659040150822</v>
+      </c>
+      <c r="F35">
+        <v>0.007027402545991815</v>
+      </c>
+      <c r="G35">
+        <v>-0.01034999929236532</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.0190763862455671</v>
+        <v>-0.0224740271773916</v>
       </c>
       <c r="C36">
-        <v>0.01523690236648657</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01003835227109584</v>
+      </c>
+      <c r="D36">
+        <v>-0.01851967486487391</v>
+      </c>
+      <c r="E36">
+        <v>-0.03401963590094903</v>
+      </c>
+      <c r="F36">
+        <v>-0.01429229660850137</v>
+      </c>
+      <c r="G36">
+        <v>-0.01735294080998534</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03773692719407852</v>
+        <v>-0.04008412846999926</v>
       </c>
       <c r="C38">
-        <v>0.01308584157110044</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.003888175544866953</v>
+      </c>
+      <c r="D38">
+        <v>-0.01175831324236775</v>
+      </c>
+      <c r="E38">
+        <v>-0.06019649766327849</v>
+      </c>
+      <c r="F38">
+        <v>0.02641539633887774</v>
+      </c>
+      <c r="G38">
+        <v>0.02773127006296473</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.08779549711534382</v>
+        <v>-0.0991025226406126</v>
       </c>
       <c r="C39">
-        <v>0.07963142886699194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.05360228001740738</v>
+      </c>
+      <c r="D39">
+        <v>-0.08546376344305999</v>
+      </c>
+      <c r="E39">
+        <v>0.01697096974024398</v>
+      </c>
+      <c r="F39">
+        <v>-0.02511017911921584</v>
+      </c>
+      <c r="G39">
+        <v>0.007095573476431117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.06830435221745945</v>
+        <v>-0.07488738921497212</v>
       </c>
       <c r="C40">
-        <v>0.05718359188724708</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.03994574684157105</v>
+      </c>
+      <c r="D40">
+        <v>-0.007232390996487243</v>
+      </c>
+      <c r="E40">
+        <v>-0.03025749415682896</v>
+      </c>
+      <c r="F40">
+        <v>0.03794535546890793</v>
+      </c>
+      <c r="G40">
+        <v>0.04377947524581994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.03879555690798712</v>
+        <v>-0.04206136338877996</v>
       </c>
       <c r="C41">
-        <v>0.01584099063912704</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.007848161471918269</v>
+      </c>
+      <c r="D41">
+        <v>-0.04185510806485472</v>
+      </c>
+      <c r="E41">
+        <v>-0.00817624076634357</v>
+      </c>
+      <c r="F41">
+        <v>0.01191391036309598</v>
+      </c>
+      <c r="G41">
+        <v>0.004511505335652547</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04107533504474527</v>
+        <v>-0.04888540514281132</v>
       </c>
       <c r="C43">
-        <v>0.03634337755711108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.02338626936231682</v>
+      </c>
+      <c r="D43">
+        <v>-0.02846108960383234</v>
+      </c>
+      <c r="E43">
+        <v>-0.01841580005904605</v>
+      </c>
+      <c r="F43">
+        <v>-0.009035772175260663</v>
+      </c>
+      <c r="G43">
+        <v>-0.01530602114305642</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.08808306960680742</v>
+        <v>-0.08953013940844549</v>
       </c>
       <c r="C44">
-        <v>0.09134027001428131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06067020564150923</v>
+      </c>
+      <c r="D44">
+        <v>-0.06576611720026915</v>
+      </c>
+      <c r="E44">
+        <v>-0.09412397816673702</v>
+      </c>
+      <c r="F44">
+        <v>-0.05333555475765965</v>
+      </c>
+      <c r="G44">
+        <v>-0.0008353175988665474</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.02817201269071309</v>
+        <v>-0.02876647856154406</v>
       </c>
       <c r="C46">
-        <v>0.01978299260048919</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.01250573865597001</v>
+      </c>
+      <c r="D46">
+        <v>-0.03326473858142744</v>
+      </c>
+      <c r="E46">
+        <v>-0.02189670308119814</v>
+      </c>
+      <c r="F46">
+        <v>-0.01908891115317768</v>
+      </c>
+      <c r="G46">
+        <v>0.006075564406483164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.02996039434643993</v>
+        <v>-0.03257768074639697</v>
       </c>
       <c r="C47">
-        <v>0.02111060836514837</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01327448306379075</v>
+      </c>
+      <c r="D47">
+        <v>-0.01777939577476664</v>
+      </c>
+      <c r="E47">
+        <v>-0.04982998375703893</v>
+      </c>
+      <c r="F47">
+        <v>-0.01179598672422873</v>
+      </c>
+      <c r="G47">
+        <v>-0.02681465401588769</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02772902455383259</v>
+        <v>-0.03164113218977873</v>
       </c>
       <c r="C48">
-        <v>0.01835671420758413</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.01155698095319439</v>
+      </c>
+      <c r="D48">
+        <v>-0.02794781029263045</v>
+      </c>
+      <c r="E48">
+        <v>-0.04065507114535018</v>
+      </c>
+      <c r="F48">
+        <v>-0.01344461341696677</v>
+      </c>
+      <c r="G48">
+        <v>-0.009460723997807763</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>-0.1563346326695307</v>
+        <v>-0.1769736175808276</v>
       </c>
       <c r="C49">
-        <v>0.09408108920612636</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.05865468784741396</v>
+      </c>
+      <c r="D49">
+        <v>-0.009300699024934151</v>
+      </c>
+      <c r="E49">
+        <v>0.1155810997617254</v>
+      </c>
+      <c r="F49">
+        <v>-0.01354169986213055</v>
+      </c>
+      <c r="G49">
+        <v>-0.07687747152433567</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.03232324953872456</v>
+        <v>-0.03963352372383187</v>
       </c>
       <c r="C50">
-        <v>0.0259986979758224</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.02133478931061914</v>
+      </c>
+      <c r="D50">
+        <v>-0.04007345659189872</v>
+      </c>
+      <c r="E50">
+        <v>-0.04526244185734657</v>
+      </c>
+      <c r="F50">
+        <v>-0.026866314315434</v>
+      </c>
+      <c r="G50">
+        <v>-0.01821834409548164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.02507770930497006</v>
+        <v>-0.02620698887537416</v>
       </c>
       <c r="C51">
-        <v>0.01882999076106272</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.0114627226246069</v>
+      </c>
+      <c r="D51">
+        <v>-0.02521403379591868</v>
+      </c>
+      <c r="E51">
+        <v>-0.01456131017694879</v>
+      </c>
+      <c r="F51">
+        <v>-0.00753899851124603</v>
+      </c>
+      <c r="G51">
+        <v>0.008036004268034915</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1426163346618643</v>
+        <v>-0.1600547564193607</v>
       </c>
       <c r="C53">
-        <v>0.1016105346997251</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.06948564240004143</v>
+      </c>
+      <c r="D53">
+        <v>-0.02378031224778769</v>
+      </c>
+      <c r="E53">
+        <v>0.03396978838514651</v>
+      </c>
+      <c r="F53">
+        <v>-0.02888735932854915</v>
+      </c>
+      <c r="G53">
+        <v>-0.02388254861275788</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.05239569889354728</v>
+        <v>-0.05594982636265365</v>
       </c>
       <c r="C54">
-        <v>0.02525847369111325</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01239007171396984</v>
+      </c>
+      <c r="D54">
+        <v>-0.03685572131235107</v>
+      </c>
+      <c r="E54">
+        <v>-0.04012194751141629</v>
+      </c>
+      <c r="F54">
+        <v>-0.01067461004578714</v>
+      </c>
+      <c r="G54">
+        <v>-0.01024417816347952</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.0940571184202743</v>
+        <v>-0.1004262808726967</v>
       </c>
       <c r="C55">
-        <v>0.06293938780069293</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.04263079610491635</v>
+      </c>
+      <c r="D55">
+        <v>-0.03288122867080069</v>
+      </c>
+      <c r="E55">
+        <v>-0.008343324384527683</v>
+      </c>
+      <c r="F55">
+        <v>-0.0286307075370092</v>
+      </c>
+      <c r="G55">
+        <v>-0.007200372859534978</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1377267050370617</v>
+        <v>-0.158688225271129</v>
       </c>
       <c r="C56">
-        <v>0.1094844000509704</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.07679909905572255</v>
+      </c>
+      <c r="D56">
+        <v>-0.01713438771723216</v>
+      </c>
+      <c r="E56">
+        <v>0.0359316414210882</v>
+      </c>
+      <c r="F56">
+        <v>-0.06631518348408744</v>
+      </c>
+      <c r="G56">
+        <v>-0.03789529651500831</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.1164591550679951</v>
+        <v>-0.1081939853056634</v>
       </c>
       <c r="C58">
-        <v>0.03228555105623854</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.0005353609267333978</v>
+      </c>
+      <c r="D58">
+        <v>-0.05115698670177542</v>
+      </c>
+      <c r="E58">
+        <v>-0.177907014356092</v>
+      </c>
+      <c r="F58">
+        <v>-0.04847161931449639</v>
+      </c>
+      <c r="G58">
+        <v>-0.04399988901328501</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1088695290450728</v>
+        <v>-0.1474142408460853</v>
       </c>
       <c r="C59">
-        <v>0.08723681763113393</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08457810735807979</v>
+      </c>
+      <c r="D59">
+        <v>0.3490531547803169</v>
+      </c>
+      <c r="E59">
+        <v>-0.04633591765980753</v>
+      </c>
+      <c r="F59">
+        <v>0.02269844829745837</v>
+      </c>
+      <c r="G59">
+        <v>-0.00444275498471975</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1828892035466897</v>
+        <v>-0.2123504028348793</v>
       </c>
       <c r="C60">
-        <v>0.1156850003496875</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.0786855893332094</v>
+      </c>
+      <c r="D60">
+        <v>-0.0172919632681543</v>
+      </c>
+      <c r="E60">
+        <v>0.07786265675550724</v>
+      </c>
+      <c r="F60">
+        <v>-0.03822457265600013</v>
+      </c>
+      <c r="G60">
+        <v>0.02883468843679279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.07711713313751206</v>
+        <v>-0.08384655731347998</v>
       </c>
       <c r="C61">
-        <v>0.05797819619689929</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03806407555257715</v>
+      </c>
+      <c r="D61">
+        <v>-0.06166372585311521</v>
+      </c>
+      <c r="E61">
+        <v>0.01284662297307784</v>
+      </c>
+      <c r="F61">
+        <v>-0.006430975462257199</v>
+      </c>
+      <c r="G61">
+        <v>-0.03411697523606309</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>-0.1182776778074779</v>
+        <v>-0.1386070484935941</v>
       </c>
       <c r="C62">
-        <v>0.08355721713831839</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.05953680823515863</v>
+      </c>
+      <c r="D62">
+        <v>-0.02836132644369766</v>
+      </c>
+      <c r="E62">
+        <v>0.05221640628504767</v>
+      </c>
+      <c r="F62">
+        <v>-0.03065618636295812</v>
+      </c>
+      <c r="G62">
+        <v>0.01266906730036552</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.048444295084578</v>
+        <v>-0.05127215071461282</v>
       </c>
       <c r="C63">
-        <v>0.02866291062433448</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01739219941099369</v>
+      </c>
+      <c r="D63">
+        <v>-0.03134434736678595</v>
+      </c>
+      <c r="E63">
+        <v>-0.04556222582221491</v>
+      </c>
+      <c r="F63">
+        <v>-0.01540379313316407</v>
+      </c>
+      <c r="G63">
+        <v>0.02282639456780351</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.1061626606149039</v>
+        <v>-0.110144168240016</v>
       </c>
       <c r="C64">
-        <v>0.04602764090828363</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.02391467565101225</v>
+      </c>
+      <c r="D64">
+        <v>-0.04826218661536542</v>
+      </c>
+      <c r="E64">
+        <v>-0.03060474281518131</v>
+      </c>
+      <c r="F64">
+        <v>-0.04930509369362654</v>
+      </c>
+      <c r="G64">
+        <v>0.01260012946132595</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.1074569724532125</v>
+        <v>-0.1209565468031191</v>
       </c>
       <c r="C65">
-        <v>0.0649578792835547</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04382281968733608</v>
+      </c>
+      <c r="D65">
+        <v>-0.01665528430511357</v>
+      </c>
+      <c r="E65">
+        <v>0.007613405795814022</v>
+      </c>
+      <c r="F65">
+        <v>-0.06488023486043605</v>
+      </c>
+      <c r="G65">
+        <v>0.03607988944578814</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.135552365658567</v>
+        <v>-0.1514515532548752</v>
       </c>
       <c r="C66">
-        <v>0.0896765427936467</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.05641930638524805</v>
+      </c>
+      <c r="D66">
+        <v>-0.119887313452982</v>
+      </c>
+      <c r="E66">
+        <v>0.05143963836047222</v>
+      </c>
+      <c r="F66">
+        <v>-0.0478369002080692</v>
+      </c>
+      <c r="G66">
+        <v>-0.0170853567715144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.06930285654312789</v>
+        <v>-0.07358984838092648</v>
       </c>
       <c r="C67">
-        <v>0.02498703690481936</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.008728198898296109</v>
+      </c>
+      <c r="D67">
+        <v>-0.02499715040342702</v>
+      </c>
+      <c r="E67">
+        <v>-0.02843354632781968</v>
+      </c>
+      <c r="F67">
+        <v>0.01103129094072502</v>
+      </c>
+      <c r="G67">
+        <v>0.002640567597094567</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.05571739440748408</v>
+        <v>-0.07024888727531392</v>
       </c>
       <c r="C68">
-        <v>0.04898607162406608</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.04834142229139753</v>
+      </c>
+      <c r="D68">
+        <v>0.2639616459884069</v>
+      </c>
+      <c r="E68">
+        <v>-0.04812699297872591</v>
+      </c>
+      <c r="F68">
+        <v>-0.01169366455454951</v>
+      </c>
+      <c r="G68">
+        <v>-0.0001463047745196913</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.04776592500476056</v>
+        <v>-0.05082086527354493</v>
       </c>
       <c r="C69">
-        <v>0.02714927276585545</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.01271873194216129</v>
+      </c>
+      <c r="D69">
+        <v>-0.0356752744582117</v>
+      </c>
+      <c r="E69">
+        <v>-0.01733567070437397</v>
+      </c>
+      <c r="F69">
+        <v>-0.003773217301393905</v>
+      </c>
+      <c r="G69">
+        <v>-0.009077248133035908</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>-0.003533492480888596</v>
+        <v>-0.01059699998829778</v>
       </c>
       <c r="C70">
-        <v>-0.001845636331934708</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.001068816503464682</v>
+      </c>
+      <c r="D70">
+        <v>0.001413395860981586</v>
+      </c>
+      <c r="E70">
+        <v>0.006538653494281602</v>
+      </c>
+      <c r="F70">
+        <v>0.008603318157630416</v>
+      </c>
+      <c r="G70">
+        <v>-0.0006029014209741343</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.05838565889419469</v>
+        <v>-0.07368328356326043</v>
       </c>
       <c r="C71">
-        <v>0.04962258329990481</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.04843633722218865</v>
+      </c>
+      <c r="D71">
+        <v>0.3027087772408588</v>
+      </c>
+      <c r="E71">
+        <v>-0.04831976278351047</v>
+      </c>
+      <c r="F71">
+        <v>-0.02444239165624333</v>
+      </c>
+      <c r="G71">
+        <v>-0.005897764399329149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1295894051387926</v>
+        <v>-0.1498986193984188</v>
       </c>
       <c r="C72">
-        <v>0.07623025697267674</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.05124599858393823</v>
+      </c>
+      <c r="D72">
+        <v>-0.01040659337749522</v>
+      </c>
+      <c r="E72">
+        <v>0.1052978341328506</v>
+      </c>
+      <c r="F72">
+        <v>0.1375455224102604</v>
+      </c>
+      <c r="G72">
+        <v>0.1254230624688943</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.2425774798731881</v>
+        <v>-0.2685532626511548</v>
       </c>
       <c r="C73">
-        <v>0.1391332573041038</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.08702414188725799</v>
+      </c>
+      <c r="D73">
+        <v>-0.06328641737318978</v>
+      </c>
+      <c r="E73">
+        <v>0.1864521869884561</v>
+      </c>
+      <c r="F73">
+        <v>-0.07251535528930296</v>
+      </c>
+      <c r="G73">
+        <v>-0.1728525156231534</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.07694207613798298</v>
+        <v>-0.08853272072184687</v>
       </c>
       <c r="C74">
-        <v>0.08067881271739959</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.06194829379367676</v>
+      </c>
+      <c r="D74">
+        <v>-0.03551536991770796</v>
+      </c>
+      <c r="E74">
+        <v>0.004080574922485022</v>
+      </c>
+      <c r="F74">
+        <v>0.003571763942215162</v>
+      </c>
+      <c r="G74">
+        <v>-0.03035009813433122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.09733325486074085</v>
+        <v>-0.1086531219049326</v>
       </c>
       <c r="C75">
-        <v>0.07331102675325731</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.04493326812913109</v>
+      </c>
+      <c r="D75">
+        <v>-0.02474493394392173</v>
+      </c>
+      <c r="E75">
+        <v>-0.01068678245950446</v>
+      </c>
+      <c r="F75">
+        <v>-0.07638217311250577</v>
+      </c>
+      <c r="G75">
+        <v>-0.01330731424360048</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1192653635661304</v>
+        <v>-0.1336069204313942</v>
       </c>
       <c r="C76">
-        <v>0.09922257035237039</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.06892856645500893</v>
+      </c>
+      <c r="D76">
+        <v>-0.05790334605982951</v>
+      </c>
+      <c r="E76">
+        <v>-0.008927275265837614</v>
+      </c>
+      <c r="F76">
+        <v>-0.07274729561442288</v>
+      </c>
+      <c r="G76">
+        <v>-0.01934542575538514</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.09377648311777206</v>
+        <v>-0.100232267633658</v>
       </c>
       <c r="C77">
-        <v>0.065238292599105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.03317632205262239</v>
+      </c>
+      <c r="D77">
+        <v>-0.04722701781448529</v>
+      </c>
+      <c r="E77">
+        <v>0.06766923387492953</v>
+      </c>
+      <c r="F77">
+        <v>-0.3165118365187053</v>
+      </c>
+      <c r="G77">
+        <v>0.8751614407439183</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.08400717530837781</v>
+        <v>-0.09952259151403345</v>
       </c>
       <c r="C78">
-        <v>0.04675952310673695</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03111577442467395</v>
+      </c>
+      <c r="D78">
+        <v>-0.07303875175784851</v>
+      </c>
+      <c r="E78">
+        <v>-0.05194721923477737</v>
+      </c>
+      <c r="F78">
+        <v>0.0120796924354258</v>
+      </c>
+      <c r="G78">
+        <v>0.02686189385255686</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.135135667705772</v>
+        <v>-0.1510403749816959</v>
       </c>
       <c r="C79">
-        <v>0.1011122308143489</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.06506617382104651</v>
+      </c>
+      <c r="D79">
+        <v>-0.02837266732992188</v>
+      </c>
+      <c r="E79">
+        <v>0.01874268286509194</v>
+      </c>
+      <c r="F79">
+        <v>-0.04223647446793266</v>
+      </c>
+      <c r="G79">
+        <v>-0.01839102727205045</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04463186963241015</v>
+        <v>-0.03993177009755369</v>
       </c>
       <c r="C80">
-        <v>0.01837263922942863</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.005812204755538959</v>
+      </c>
+      <c r="D80">
+        <v>-0.02469083117485948</v>
+      </c>
+      <c r="E80">
+        <v>-0.01183268866185755</v>
+      </c>
+      <c r="F80">
+        <v>0.03118298314334819</v>
+      </c>
+      <c r="G80">
+        <v>-0.04091667750110529</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1087119722185938</v>
+        <v>-0.1205873268243524</v>
       </c>
       <c r="C81">
-        <v>0.07995552663790825</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.05173292214603822</v>
+      </c>
+      <c r="D81">
+        <v>-0.03918517364045847</v>
+      </c>
+      <c r="E81">
+        <v>0.005106037649561692</v>
+      </c>
+      <c r="F81">
+        <v>-0.04101914390744518</v>
+      </c>
+      <c r="G81">
+        <v>-0.05308256264760418</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1143240596877501</v>
+        <v>-0.1260449007223921</v>
       </c>
       <c r="C82">
-        <v>0.09324448559743305</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.06064211513433432</v>
+      </c>
+      <c r="D82">
+        <v>-0.03953807601671656</v>
+      </c>
+      <c r="E82">
+        <v>0.02455970238436444</v>
+      </c>
+      <c r="F82">
+        <v>-0.05818843318830731</v>
+      </c>
+      <c r="G82">
+        <v>-0.06207043826065744</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.07188851406326854</v>
+        <v>-0.07030128205847913</v>
       </c>
       <c r="C83">
-        <v>0.01573805060839754</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.005055310844503988</v>
+      </c>
+      <c r="D83">
+        <v>-0.04188702457656538</v>
+      </c>
+      <c r="E83">
+        <v>-0.01189293954255021</v>
+      </c>
+      <c r="F83">
+        <v>0.005385336846689628</v>
+      </c>
+      <c r="G83">
+        <v>-0.05891544221479571</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>-0.02449416869114454</v>
+        <v>-0.03288817895223045</v>
       </c>
       <c r="C84">
-        <v>0.01902786354995224</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01868527161510606</v>
+      </c>
+      <c r="D84">
+        <v>-0.01319754586928933</v>
+      </c>
+      <c r="E84">
+        <v>-0.008416011209512719</v>
+      </c>
+      <c r="F84">
+        <v>0.03690580208956452</v>
+      </c>
+      <c r="G84">
+        <v>-0.03558554095615372</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1170030000424506</v>
+        <v>-0.11834613564802</v>
       </c>
       <c r="C85">
-        <v>0.07971187754032684</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.04520937296941581</v>
+      </c>
+      <c r="D85">
+        <v>-0.03697300963141772</v>
+      </c>
+      <c r="E85">
+        <v>-0.01207160199128023</v>
+      </c>
+      <c r="F85">
+        <v>-0.08695775629129043</v>
+      </c>
+      <c r="G85">
+        <v>-0.005059330209766028</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.04341389880231424</v>
+        <v>-0.0458551085086225</v>
       </c>
       <c r="C86">
-        <v>0.02415961427187168</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01103849377721753</v>
+      </c>
+      <c r="D86">
+        <v>-0.01525717224774688</v>
+      </c>
+      <c r="E86">
+        <v>-0.04301901915637495</v>
+      </c>
+      <c r="F86">
+        <v>-0.01115608123011631</v>
+      </c>
+      <c r="G86">
+        <v>0.006814837782635499</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.1122258496833565</v>
+        <v>-0.1185647218043205</v>
       </c>
       <c r="C87">
-        <v>0.07948963226577858</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.04682839584976369</v>
+      </c>
+      <c r="D87">
+        <v>-0.07607515883007004</v>
+      </c>
+      <c r="E87">
+        <v>-0.01126976253890232</v>
+      </c>
+      <c r="F87">
+        <v>-0.03095007842240236</v>
+      </c>
+      <c r="G87">
+        <v>0.09874577396456889</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.05314123354456443</v>
+        <v>-0.05706107630724173</v>
       </c>
       <c r="C88">
-        <v>0.04193184815358685</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.02595115949327326</v>
+      </c>
+      <c r="D88">
+        <v>-0.02629350416459323</v>
+      </c>
+      <c r="E88">
+        <v>-0.02094393694689387</v>
+      </c>
+      <c r="F88">
+        <v>-0.008508200509452214</v>
+      </c>
+      <c r="G88">
+        <v>0.007538763480704621</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.07756297766942606</v>
+        <v>-0.1065781249676343</v>
       </c>
       <c r="C89">
-        <v>0.08209781269795011</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07922684786698676</v>
+      </c>
+      <c r="D89">
+        <v>0.3230743853701768</v>
+      </c>
+      <c r="E89">
+        <v>-0.09328771754637508</v>
+      </c>
+      <c r="F89">
+        <v>-0.05288554320332972</v>
+      </c>
+      <c r="G89">
+        <v>-0.01287152412732584</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.07342608218214633</v>
+        <v>-0.09266268867619552</v>
       </c>
       <c r="C90">
-        <v>0.07436626680889739</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.06958684512771522</v>
+      </c>
+      <c r="D90">
+        <v>0.3116686632672216</v>
+      </c>
+      <c r="E90">
+        <v>-0.07898056931904543</v>
+      </c>
+      <c r="F90">
+        <v>0.01742718642864693</v>
+      </c>
+      <c r="G90">
+        <v>-0.01762188799632747</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.08094443713482682</v>
+        <v>-0.09022569932420491</v>
       </c>
       <c r="C91">
-        <v>0.06517346057704825</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.04309025674666434</v>
+      </c>
+      <c r="D91">
+        <v>-0.029423705969924</v>
+      </c>
+      <c r="E91">
+        <v>-0.005747284589271208</v>
+      </c>
+      <c r="F91">
+        <v>-0.01614384314826474</v>
+      </c>
+      <c r="G91">
+        <v>-0.03524041666169477</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.08624566467463989</v>
+        <v>-0.1058258097769863</v>
       </c>
       <c r="C92">
-        <v>0.06615096501230104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.06264276011052212</v>
+      </c>
+      <c r="D92">
+        <v>0.3284884728280105</v>
+      </c>
+      <c r="E92">
+        <v>-0.03160174090714187</v>
+      </c>
+      <c r="F92">
+        <v>-0.03188649345610753</v>
+      </c>
+      <c r="G92">
+        <v>0.02181965535943845</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.06389344725620989</v>
+        <v>-0.0865571223062893</v>
       </c>
       <c r="C93">
-        <v>0.06858062286584043</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.06735214992268931</v>
+      </c>
+      <c r="D93">
+        <v>0.2984667525556493</v>
+      </c>
+      <c r="E93">
+        <v>-0.04446999290461053</v>
+      </c>
+      <c r="F93">
+        <v>-0.03711036302875292</v>
+      </c>
+      <c r="G93">
+        <v>0.01420067184347524</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1269581940729236</v>
+        <v>-0.1295954670375831</v>
       </c>
       <c r="C94">
-        <v>0.07900230897075329</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03942302222237281</v>
+      </c>
+      <c r="D94">
+        <v>-0.05718251923013536</v>
+      </c>
+      <c r="E94">
+        <v>0.02612406396261226</v>
+      </c>
+      <c r="F94">
+        <v>-0.05157768865904678</v>
+      </c>
+      <c r="G94">
+        <v>-0.03976274252714919</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1138490168844185</v>
+        <v>-0.119753507674992</v>
       </c>
       <c r="C95">
-        <v>0.05462415348830625</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.02723465737439142</v>
+      </c>
+      <c r="D95">
+        <v>-0.05944906797061202</v>
+      </c>
+      <c r="E95">
+        <v>0.01656132335061736</v>
+      </c>
+      <c r="F95">
+        <v>-0.02749001320761103</v>
+      </c>
+      <c r="G95">
+        <v>0.008796521050874492</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>-0.1884733615344078</v>
+        <v>-0.2229403543297395</v>
       </c>
       <c r="C97">
-        <v>0.07290472118192561</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.04166576489545877</v>
+      </c>
+      <c r="D97">
+        <v>0.01305091210448575</v>
+      </c>
+      <c r="E97">
+        <v>0.2259543188263871</v>
+      </c>
+      <c r="F97">
+        <v>0.858059557480946</v>
+      </c>
+      <c r="G97">
+        <v>0.2514171319146394</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2354667133286212</v>
+        <v>-0.2578772571237326</v>
       </c>
       <c r="C98">
-        <v>0.1178205427411514</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.06097882357563074</v>
+      </c>
+      <c r="D98">
+        <v>-0.03698600187442101</v>
+      </c>
+      <c r="E98">
+        <v>0.1449903338950582</v>
+      </c>
+      <c r="F98">
+        <v>0.005150605488499983</v>
+      </c>
+      <c r="G98">
+        <v>-0.2457561819807155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>-0.5576055524560345</v>
+        <v>-0.3698615902736946</v>
       </c>
       <c r="C99">
-        <v>-0.8202761763438655</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9184630485363958</v>
+      </c>
+      <c r="D99">
+        <v>0.07109519059670658</v>
+      </c>
+      <c r="E99">
+        <v>-0.04961289282229119</v>
+      </c>
+      <c r="F99">
+        <v>-0.03820940884285036</v>
+      </c>
+      <c r="G99">
+        <v>-0.00213500963378873</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.03694420752518299</v>
+        <v>-0.04240803424862169</v>
       </c>
       <c r="C101">
-        <v>0.03279258709958452</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02556292096941613</v>
+      </c>
+      <c r="D101">
+        <v>-0.01031090711067999</v>
+      </c>
+      <c r="E101">
+        <v>-0.04317828649540541</v>
+      </c>
+      <c r="F101">
+        <v>-0.0089206624651343</v>
+      </c>
+      <c r="G101">
+        <v>-0.004472368378098008</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
